--- a/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-23.xlsx
+++ b/Database Notebook/xlsx/Reporte diario pdf/ReporteDiario2020-06-23.xlsx
@@ -415,7 +415,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.443</v>
+        <v>1443</v>
       </c>
       <c r="C2" t="n">
         <v>23</v>
@@ -443,7 +443,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.442</v>
+        <v>5442</v>
       </c>
       <c r="C3" t="n">
         <v>87</v>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6.991000000000001</v>
+        <v>6991</v>
       </c>
       <c r="C4" t="n">
         <v>283</v>
@@ -489,7 +489,7 @@
         <v>100</v>
       </c>
       <c r="H4" t="n">
-        <v>1.659</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="5">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.485</v>
+        <v>2485</v>
       </c>
       <c r="C6" t="n">
         <v>57</v>
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.901</v>
+        <v>9901</v>
       </c>
       <c r="C7" t="n">
         <v>286</v>
@@ -573,7 +573,7 @@
         <v>170</v>
       </c>
       <c r="H7" t="n">
-        <v>1.948</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="8">
@@ -583,13 +583,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>200.861</v>
+        <v>200861</v>
       </c>
       <c r="C8" t="n">
-        <v>2.469</v>
+        <v>2469</v>
       </c>
       <c r="D8" t="n">
-        <v>1.994</v>
+        <v>1994</v>
       </c>
       <c r="E8" t="n">
         <v>178</v>
@@ -598,10 +598,10 @@
         <v>297</v>
       </c>
       <c r="G8" t="n">
-        <v>3.895</v>
+        <v>3895</v>
       </c>
       <c r="H8" t="n">
-        <v>23.867</v>
+        <v>23867</v>
       </c>
     </row>
     <row r="9">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.361000000000001</v>
+        <v>4361</v>
       </c>
       <c r="C9" t="n">
         <v>175</v>
@@ -629,7 +629,7 @@
         <v>52</v>
       </c>
       <c r="H9" t="n">
-        <v>1.649</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="10">
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.504</v>
+        <v>4504</v>
       </c>
       <c r="C10" t="n">
         <v>149</v>
@@ -657,7 +657,7 @@
         <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>1.249</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.195</v>
+        <v>2195</v>
       </c>
       <c r="C11" t="n">
         <v>14</v>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5.327999999999999</v>
+        <v>5328</v>
       </c>
       <c r="C12" t="n">
         <v>170</v>
@@ -713,7 +713,7 @@
         <v>35</v>
       </c>
       <c r="H12" t="n">
-        <v>1.82</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="13">
@@ -723,7 +723,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.027</v>
+        <v>3027</v>
       </c>
       <c r="C13" t="n">
         <v>18</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.466</v>
+        <v>1466</v>
       </c>
       <c r="C15" t="n">
         <v>29</v>
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.363</v>
+        <v>1363</v>
       </c>
       <c r="C17" t="n">
         <v>11</v>
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>250.767</v>
+        <v>250767</v>
       </c>
       <c r="C18" t="n">
-        <v>3.804</v>
+        <v>3804</v>
       </c>
       <c r="D18" t="n">
-        <v>3.078</v>
+        <v>3078</v>
       </c>
       <c r="E18" t="n">
         <v>336</v>
@@ -878,10 +878,10 @@
         <v>390</v>
       </c>
       <c r="G18" t="n">
-        <v>4.505</v>
+        <v>4505</v>
       </c>
       <c r="H18" t="n">
-        <v>35.692</v>
+        <v>35692</v>
       </c>
     </row>
   </sheetData>
